--- a/DB_demo.xlsx
+++ b/DB_demo.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuhiroito/Desktop/well-being/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzito\Desktop\well-being\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B6F50-7A80-934C-BE4F-EE81F7648DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A431EA9-50AC-43D7-A559-7A1B1BD295D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="3280" windowWidth="24360" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="3435" windowWidth="17745" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -86,13 +99,37 @@
   </si>
   <si>
     <t>demo</t>
+  </si>
+  <si>
+    <t>2023/5/15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/9</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,12 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -495,19 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -520,12 +562,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>44824</v>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -537,12 +579,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>44824</v>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -554,12 +596,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>44824</v>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -571,12 +613,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>44824</v>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -588,12 +630,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>44824</v>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -605,12 +647,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>44823</v>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -622,12 +664,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>44823</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -639,12 +681,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>44823</v>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -656,12 +698,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>44823</v>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -673,12 +715,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>44823</v>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -690,12 +732,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>44822</v>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -707,12 +749,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>44822</v>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -724,12 +766,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>44822</v>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -741,12 +783,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>44822</v>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -758,12 +800,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>44822</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -775,12 +817,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>44821</v>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -792,12 +834,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>44821</v>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -809,12 +851,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>44821</v>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -826,12 +868,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>44821</v>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -843,12 +885,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>44821</v>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -860,12 +902,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>44820</v>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -877,12 +919,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>44820</v>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -894,12 +936,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>44820</v>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -911,12 +953,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>44820</v>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -928,12 +970,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>44820</v>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -945,12 +987,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>44819</v>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -962,12 +1004,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>44819</v>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -979,12 +1021,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>44819</v>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -996,12 +1038,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>44819</v>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1013,12 +1055,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>44819</v>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
